--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Fx/FxAssets.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Fx/FxAssets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Fx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Fx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA893940-50C8-47BE-9377-0BFB0489C748}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC4C9ED-5377-459D-B92C-A4D3CE394DE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="12315" windowHeight="13035" tabRatio="416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" tabRatio="416" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FxCurves" sheetId="2" r:id="rId1"/>
@@ -30,12 +30,20 @@
     <definedName name="IRCurve6m">[1]IRBootstrap6m!$D$5</definedName>
     <definedName name="StrikeQuoteUnits">[2]Configuration!$D$2:$D$4</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
   <si>
     <t>IR Term Structure</t>
   </si>
@@ -302,6 +310,18 @@
   </si>
   <si>
     <t>AUDUSD-FxSpot</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>MarketQuote</t>
+  </si>
+  <si>
+    <t>ForwardDelta</t>
+  </si>
+  <si>
+    <t>SpotDelta</t>
   </si>
 </sst>
 </file>
@@ -1553,301 +1573,301 @@
                 <c:formatCode>d/m/yyyy;@</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>43217</c:v>
+                  <c:v>43640</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43218</c:v>
+                  <c:v>43641</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43219</c:v>
+                  <c:v>43642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43220</c:v>
+                  <c:v>43643</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43221</c:v>
+                  <c:v>43644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43222</c:v>
+                  <c:v>43645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43223</c:v>
+                  <c:v>43646</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43224</c:v>
+                  <c:v>43647</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43225</c:v>
+                  <c:v>43648</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43226</c:v>
+                  <c:v>43649</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43227</c:v>
+                  <c:v>43650</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43228</c:v>
+                  <c:v>43651</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43229</c:v>
+                  <c:v>43652</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43230</c:v>
+                  <c:v>43653</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43231</c:v>
+                  <c:v>43654</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43232</c:v>
+                  <c:v>43655</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43233</c:v>
+                  <c:v>43656</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43234</c:v>
+                  <c:v>43657</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43235</c:v>
+                  <c:v>43658</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43236</c:v>
+                  <c:v>43659</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43237</c:v>
+                  <c:v>43660</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43238</c:v>
+                  <c:v>43661</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43239</c:v>
+                  <c:v>43662</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43240</c:v>
+                  <c:v>43663</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43241</c:v>
+                  <c:v>43664</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43242</c:v>
+                  <c:v>43665</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43243</c:v>
+                  <c:v>43666</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43244</c:v>
+                  <c:v>43667</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43245</c:v>
+                  <c:v>43668</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43246</c:v>
+                  <c:v>43669</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43247</c:v>
+                  <c:v>43670</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43248</c:v>
+                  <c:v>43671</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43249</c:v>
+                  <c:v>43672</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43250</c:v>
+                  <c:v>43673</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43251</c:v>
+                  <c:v>43674</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43252</c:v>
+                  <c:v>43675</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43253</c:v>
+                  <c:v>43676</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43254</c:v>
+                  <c:v>43677</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43255</c:v>
+                  <c:v>43678</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43256</c:v>
+                  <c:v>43679</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43257</c:v>
+                  <c:v>43680</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43258</c:v>
+                  <c:v>43681</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43259</c:v>
+                  <c:v>43682</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43260</c:v>
+                  <c:v>43683</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43261</c:v>
+                  <c:v>43684</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43262</c:v>
+                  <c:v>43685</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43263</c:v>
+                  <c:v>43686</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43264</c:v>
+                  <c:v>43687</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43265</c:v>
+                  <c:v>43688</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43266</c:v>
+                  <c:v>43689</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43267</c:v>
+                  <c:v>43690</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43268</c:v>
+                  <c:v>43691</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43269</c:v>
+                  <c:v>43692</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43270</c:v>
+                  <c:v>43693</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43271</c:v>
+                  <c:v>43694</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>43272</c:v>
+                  <c:v>43695</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43273</c:v>
+                  <c:v>43696</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43274</c:v>
+                  <c:v>43697</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>43275</c:v>
+                  <c:v>43698</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43276</c:v>
+                  <c:v>43699</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43277</c:v>
+                  <c:v>43700</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>43278</c:v>
+                  <c:v>43701</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>43279</c:v>
+                  <c:v>43702</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43280</c:v>
+                  <c:v>43703</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>43281</c:v>
+                  <c:v>43704</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43282</c:v>
+                  <c:v>43705</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43283</c:v>
+                  <c:v>43706</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>43284</c:v>
+                  <c:v>43707</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>43285</c:v>
+                  <c:v>43708</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>43286</c:v>
+                  <c:v>43709</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>43287</c:v>
+                  <c:v>43710</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>43288</c:v>
+                  <c:v>43711</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>43289</c:v>
+                  <c:v>43712</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>43290</c:v>
+                  <c:v>43713</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>43291</c:v>
+                  <c:v>43714</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>43292</c:v>
+                  <c:v>43715</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>43293</c:v>
+                  <c:v>43716</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>43294</c:v>
+                  <c:v>43717</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>43295</c:v>
+                  <c:v>43718</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>43296</c:v>
+                  <c:v>43719</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>43297</c:v>
+                  <c:v>43720</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>43298</c:v>
+                  <c:v>43721</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>43299</c:v>
+                  <c:v>43722</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>43300</c:v>
+                  <c:v>43723</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43301</c:v>
+                  <c:v>43724</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43302</c:v>
+                  <c:v>43725</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43303</c:v>
+                  <c:v>43726</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43304</c:v>
+                  <c:v>43727</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43305</c:v>
+                  <c:v>43728</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43306</c:v>
+                  <c:v>43729</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43307</c:v>
+                  <c:v>43730</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43308</c:v>
+                  <c:v>43731</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43309</c:v>
+                  <c:v>43732</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43310</c:v>
+                  <c:v>43733</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43311</c:v>
+                  <c:v>43734</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43312</c:v>
+                  <c:v>43735</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43313</c:v>
+                  <c:v>43736</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43314</c:v>
+                  <c:v>43737</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43315</c:v>
+                  <c:v>43738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1862,298 +1882,298 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69750000000000001</c:v>
+                  <c:v>0.69499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69499999999999995</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69249999999999989</c:v>
+                  <c:v>0.69499999999999984</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69</c:v>
+                  <c:v>0.69448275862068953</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69499999999999995</c:v>
+                  <c:v>0.69396551724137923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69450000000000001</c:v>
+                  <c:v>0.69344827586206881</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69399999999999995</c:v>
+                  <c:v>0.6929310344827585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69350000000000001</c:v>
+                  <c:v>0.69241379310344819</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.69299999999999995</c:v>
+                  <c:v>0.69189655172413789</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6925</c:v>
+                  <c:v>0.69137931034482747</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.69199999999999995</c:v>
+                  <c:v>0.69086206896551716</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6915</c:v>
+                  <c:v>0.69034482758620686</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.69099999999999995</c:v>
+                  <c:v>0.68982758620689655</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.6905</c:v>
+                  <c:v>0.68931034482758613</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.69</c:v>
+                  <c:v>0.68879310344827582</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.6895</c:v>
+                  <c:v>0.68827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.68900000000000006</c:v>
+                  <c:v>0.6877586206896551</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.6885</c:v>
+                  <c:v>0.68724137931034479</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.68800000000000006</c:v>
+                  <c:v>0.68672413793103448</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.6875</c:v>
+                  <c:v>0.68620689655172407</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.68699999999999994</c:v>
+                  <c:v>0.68568965517241376</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.6865</c:v>
+                  <c:v>0.68517241379310345</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.68600000000000005</c:v>
+                  <c:v>0.68465517241379303</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.6855</c:v>
+                  <c:v>0.68413793103448273</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.68499999999999994</c:v>
+                  <c:v>0.68362068965517231</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.68450000000000011</c:v>
+                  <c:v>0.683103448275862</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.68400000000000005</c:v>
+                  <c:v>0.68258620689655169</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.6835</c:v>
+                  <c:v>0.68206896551724139</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.68300000000000005</c:v>
+                  <c:v>0.68155172413793097</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.68250000000000011</c:v>
+                  <c:v>0.68103448275862066</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.68200000000000005</c:v>
+                  <c:v>0.68051724137931036</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.68149999999999999</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.68100000000000005</c:v>
+                  <c:v>0.67967741935483883</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.68049999999999999</c:v>
+                  <c:v>0.6793548387096775</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.68</c:v>
+                  <c:v>0.67903225806451617</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.67967741935483883</c:v>
+                  <c:v>0.67870967741935484</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.6793548387096775</c:v>
+                  <c:v>0.67838709677419362</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.67903225806451617</c:v>
+                  <c:v>0.67806451612903229</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.67870967741935484</c:v>
+                  <c:v>0.67774193548387096</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.67838709677419362</c:v>
+                  <c:v>0.67741935483870974</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.67806451612903229</c:v>
+                  <c:v>0.67709677419354841</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.67774193548387096</c:v>
+                  <c:v>0.67677419354838719</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.67741935483870974</c:v>
+                  <c:v>0.67645161290322586</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.67709677419354841</c:v>
+                  <c:v>0.67612903225806453</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.67677419354838719</c:v>
+                  <c:v>0.67580645161290331</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.67645161290322586</c:v>
+                  <c:v>0.67548387096774198</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.67612903225806453</c:v>
+                  <c:v>0.67516129032258065</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.67580645161290331</c:v>
+                  <c:v>0.67483870967741943</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.67548387096774198</c:v>
+                  <c:v>0.6745161290322581</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.67516129032258065</c:v>
+                  <c:v>0.67419354838709677</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.67483870967741943</c:v>
+                  <c:v>0.67387096774193556</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.6745161290322581</c:v>
+                  <c:v>0.67354838709677423</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.67419354838709677</c:v>
+                  <c:v>0.6732258064516129</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.67387096774193556</c:v>
+                  <c:v>0.67290322580645168</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.67354838709677423</c:v>
+                  <c:v>0.67258064516129035</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.6732258064516129</c:v>
+                  <c:v>0.67225806451612913</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.67290322580645168</c:v>
+                  <c:v>0.6719354838709678</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.67258064516129035</c:v>
+                  <c:v>0.67161290322580647</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.67225806451612913</c:v>
+                  <c:v>0.67129032258064525</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.6719354838709678</c:v>
+                  <c:v>0.67096774193548392</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.67161290322580647</c:v>
+                  <c:v>0.67064516129032259</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.67129032258064525</c:v>
+                  <c:v>0.67032258064516137</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.67096774193548392</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.67064516129032259</c:v>
+                  <c:v>0.66967741935483871</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.67032258064516137</c:v>
+                  <c:v>0.66935483870967749</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.67</c:v>
+                  <c:v>0.66903225806451616</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.66966666666666674</c:v>
+                  <c:v>0.66870967741935494</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.66933333333333334</c:v>
+                  <c:v>0.66838709677419361</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.66900000000000004</c:v>
+                  <c:v>0.66806451612903228</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.66866666666666674</c:v>
+                  <c:v>0.66774193548387095</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.66833333333333333</c:v>
+                  <c:v>0.66741935483870973</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.66800000000000004</c:v>
+                  <c:v>0.6670967741935484</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.66766666666666663</c:v>
+                  <c:v>0.66677419354838718</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.66733333333333333</c:v>
+                  <c:v>0.66645161290322585</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.66700000000000004</c:v>
+                  <c:v>0.66612903225806452</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.66580645161290331</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.66633333333333333</c:v>
+                  <c:v>0.66548387096774198</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.66600000000000004</c:v>
+                  <c:v>0.66516129032258076</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.66566666666666663</c:v>
+                  <c:v>0.66483870967741943</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.66533333333333333</c:v>
+                  <c:v>0.6645161290322581</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.66500000000000004</c:v>
+                  <c:v>0.66419354838709688</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.66466666666666663</c:v>
+                  <c:v>0.66387096774193555</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.66433333333333333</c:v>
+                  <c:v>0.66354838709677422</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.66400000000000003</c:v>
+                  <c:v>0.66322580645161289</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.66366666666666663</c:v>
+                  <c:v>0.66290322580645167</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.66333333333333333</c:v>
+                  <c:v>0.66258064516129034</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.66300000000000003</c:v>
+                  <c:v>0.66225806451612901</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.66266666666666663</c:v>
+                  <c:v>0.66193548387096779</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.66233333333333333</c:v>
+                  <c:v>0.66161290322580657</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.66200000000000003</c:v>
+                  <c:v>0.66129032258064524</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.66166666666666663</c:v>
+                  <c:v>0.66096774193548391</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.66133333333333333</c:v>
+                  <c:v>0.66064516129032258</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.66100000000000003</c:v>
+                  <c:v>0.66032258064516136</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.66066666666666674</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.66033333333333333</c:v>
+                  <c:v>0.65989130434782617</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.66</c:v>
+                  <c:v>0.6597826086956522</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.65989130434782617</c:v>
+                  <c:v>0.65967391304347833</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.6597826086956522</c:v>
+                  <c:v>0.65956521739130436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2904,7 +2924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -2943,7 +2963,7 @@
       </c>
       <c r="C3" s="55">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43640</v>
       </c>
       <c r="D3" s="31"/>
     </row>
@@ -2953,7 +2973,7 @@
       </c>
       <c r="C4" s="55">
         <f ca="1">C3</f>
-        <v>43217</v>
+        <v>43640</v>
       </c>
       <c r="D4" s="31"/>
     </row>
@@ -3297,7 +3317,7 @@
     <row r="38" spans="2:4">
       <c r="B38" s="108">
         <f t="array" aca="1" ref="B38:C56" ca="1">_xll.HLV5r3.Financial.Cache.GetTermCurve(C1)</f>
-        <v>43217</v>
+        <v>43640</v>
       </c>
       <c r="C38">
         <f ca="1"/>
@@ -3308,7 +3328,7 @@
     <row r="39" spans="2:4">
       <c r="B39" s="109">
         <f ca="1"/>
-        <v>43221</v>
+        <v>43642</v>
       </c>
       <c r="C39">
         <f ca="1"/>
@@ -3318,7 +3338,7 @@
     <row r="40" spans="2:4">
       <c r="B40" s="109">
         <f ca="1"/>
-        <v>43222</v>
+        <v>43643</v>
       </c>
       <c r="C40">
         <f ca="1"/>
@@ -3328,7 +3348,7 @@
     <row r="41" spans="2:4">
       <c r="B41" s="109">
         <f ca="1"/>
-        <v>43252</v>
+        <v>43672</v>
       </c>
       <c r="C41">
         <f ca="1"/>
@@ -3338,7 +3358,7 @@
     <row r="42" spans="2:4">
       <c r="B42" s="109">
         <f ca="1"/>
-        <v>43283</v>
+        <v>43703</v>
       </c>
       <c r="C42">
         <f ca="1"/>
@@ -3348,7 +3368,7 @@
     <row r="43" spans="2:4">
       <c r="B43" s="109">
         <f ca="1"/>
-        <v>43313</v>
+        <v>43734</v>
       </c>
       <c r="C43">
         <f ca="1"/>
@@ -3358,7 +3378,7 @@
     <row r="44" spans="2:4">
       <c r="B44" s="109">
         <f ca="1"/>
-        <v>43405</v>
+        <v>43826</v>
       </c>
       <c r="C44">
         <f ca="1"/>
@@ -3368,7 +3388,7 @@
     <row r="45" spans="2:4">
       <c r="B45" s="109">
         <f ca="1"/>
-        <v>43497</v>
+        <v>43916</v>
       </c>
       <c r="C45">
         <f ca="1"/>
@@ -3378,7 +3398,7 @@
     <row r="46" spans="2:4">
       <c r="B46" s="109">
         <f ca="1"/>
-        <v>43586</v>
+        <v>44008</v>
       </c>
       <c r="C46">
         <f ca="1"/>
@@ -3388,7 +3408,7 @@
     <row r="47" spans="2:4">
       <c r="B47" s="109">
         <f ca="1"/>
-        <v>43952</v>
+        <v>44375</v>
       </c>
       <c r="C47">
         <f ca="1"/>
@@ -3398,7 +3418,7 @@
     <row r="48" spans="2:4">
       <c r="B48" s="109">
         <f ca="1"/>
-        <v>44319</v>
+        <v>44739</v>
       </c>
       <c r="C48">
         <f ca="1"/>
@@ -3408,7 +3428,7 @@
     <row r="49" spans="2:3">
       <c r="B49" s="109">
         <f ca="1"/>
-        <v>44683</v>
+        <v>45103</v>
       </c>
       <c r="C49">
         <f ca="1"/>
@@ -3418,7 +3438,7 @@
     <row r="50" spans="2:3">
       <c r="B50" s="109">
         <f ca="1"/>
-        <v>45047</v>
+        <v>45469</v>
       </c>
       <c r="C50">
         <f ca="1"/>
@@ -3428,7 +3448,7 @@
     <row r="51" spans="2:3">
       <c r="B51" s="109">
         <f ca="1"/>
-        <v>45413</v>
+        <v>45834</v>
       </c>
       <c r="C51">
         <f ca="1"/>
@@ -3438,7 +3458,7 @@
     <row r="52" spans="2:3">
       <c r="B52" s="109">
         <f ca="1"/>
-        <v>45778</v>
+        <v>46199</v>
       </c>
       <c r="C52">
         <f ca="1"/>
@@ -3448,7 +3468,7 @@
     <row r="53" spans="2:3">
       <c r="B53" s="109">
         <f ca="1"/>
-        <v>46143</v>
+        <v>46566</v>
       </c>
       <c r="C53">
         <f ca="1"/>
@@ -3458,7 +3478,7 @@
     <row r="54" spans="2:3">
       <c r="B54" s="109">
         <f ca="1"/>
-        <v>46510</v>
+        <v>46930</v>
       </c>
       <c r="C54">
         <f ca="1"/>
@@ -3468,7 +3488,7 @@
     <row r="55" spans="2:3">
       <c r="B55" s="109">
         <f ca="1"/>
-        <v>46874</v>
+        <v>47295</v>
       </c>
       <c r="C55">
         <f ca="1"/>
@@ -3589,7 +3609,7 @@
       </c>
       <c r="C3" s="79">
         <f ca="1">NOW()</f>
-        <v>43217.357286458333</v>
+        <v>43640.680937037039</v>
       </c>
       <c r="E3" s="80" t="s">
         <v>48</v>
@@ -3628,7 +3648,7 @@
       </c>
       <c r="C4" s="84">
         <f ca="1">C3</f>
-        <v>43217.357286458333</v>
+        <v>43640.680937037039</v>
       </c>
       <c r="E4" s="80" t="s">
         <v>49</v>
@@ -4067,7 +4087,7 @@
       </c>
       <c r="C17" s="91">
         <f ca="1">C3</f>
-        <v>43217.357286458333</v>
+        <v>43640.680937037039</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="13.5" thickBot="1">
@@ -4689,7 +4709,7 @@
     <row r="35" spans="1:16">
       <c r="E35" s="94">
         <f ca="1">$C$3+182</f>
-        <v>43399.357286458333</v>
+        <v>43822.680937037039</v>
       </c>
       <c r="F35" s="104">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E35, F$34)</f>
@@ -4732,7 +4752,7 @@
     <row r="36" spans="1:16">
       <c r="E36" s="94">
         <f ca="1">E35+182</f>
-        <v>43581.357286458333</v>
+        <v>44004.680937037039</v>
       </c>
       <c r="F36" s="81">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E36, F$34)</f>
@@ -4775,7 +4795,7 @@
       <c r="A37" s="103"/>
       <c r="E37" s="94">
         <f t="shared" ref="E37:E45" ca="1" si="3">E36+182</f>
-        <v>43763.357286458333</v>
+        <v>44186.680937037039</v>
       </c>
       <c r="F37" s="81">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E37, F$34)</f>
@@ -4817,7 +4837,7 @@
     <row r="38" spans="1:16">
       <c r="E38" s="94">
         <f ca="1">E37+182</f>
-        <v>43945.357286458333</v>
+        <v>44368.680937037039</v>
       </c>
       <c r="F38" s="81">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E38, F$34)</f>
@@ -4859,7 +4879,7 @@
     <row r="39" spans="1:16">
       <c r="E39" s="94">
         <f ca="1">E38+182</f>
-        <v>44127.357286458333</v>
+        <v>44550.680937037039</v>
       </c>
       <c r="F39" s="81">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E39, F$34)</f>
@@ -4901,7 +4921,7 @@
     <row r="40" spans="1:16">
       <c r="E40" s="94">
         <f t="shared" ca="1" si="3"/>
-        <v>44309.357286458333</v>
+        <v>44732.680937037039</v>
       </c>
       <c r="F40" s="81">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E40, F$34)</f>
@@ -4943,7 +4963,7 @@
     <row r="41" spans="1:16">
       <c r="E41" s="94">
         <f ca="1">E40+182</f>
-        <v>44491.357286458333</v>
+        <v>44914.680937037039</v>
       </c>
       <c r="F41" s="81">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E41, F$34)</f>
@@ -4985,7 +5005,7 @@
     <row r="42" spans="1:16">
       <c r="E42" s="94">
         <f t="shared" ca="1" si="3"/>
-        <v>44673.357286458333</v>
+        <v>45096.680937037039</v>
       </c>
       <c r="F42" s="81">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E42, F$34)</f>
@@ -5027,7 +5047,7 @@
     <row r="43" spans="1:16">
       <c r="E43" s="94">
         <f t="shared" ca="1" si="3"/>
-        <v>44855.357286458333</v>
+        <v>45278.680937037039</v>
       </c>
       <c r="F43" s="81">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E43, F$34)</f>
@@ -5069,7 +5089,7 @@
     <row r="44" spans="1:16">
       <c r="E44" s="94">
         <f t="shared" ca="1" si="3"/>
-        <v>45037.357286458333</v>
+        <v>45460.680937037039</v>
       </c>
       <c r="F44" s="81">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E44, F$34)</f>
@@ -5111,7 +5131,7 @@
     <row r="45" spans="1:16">
       <c r="E45" s="94">
         <f t="shared" ca="1" si="3"/>
-        <v>45219.357286458333</v>
+        <v>45642.680937037039</v>
       </c>
       <c r="F45" s="81">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E45, F$34)</f>
@@ -5153,7 +5173,7 @@
     <row r="46" spans="1:16" ht="13.5" thickBot="1">
       <c r="E46" s="99">
         <f ca="1">E45+182</f>
-        <v>45401.357286458333</v>
+        <v>45824.680937037039</v>
       </c>
       <c r="F46" s="89">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E46, F$34)</f>
@@ -5207,10 +5227,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -5221,10 +5241,14 @@
     <col min="4" max="4" width="4.42578125" style="7" customWidth="1"/>
     <col min="5" max="5" width="26" style="7" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="7"/>
+    <col min="9" max="9" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="7"/>
+    <col min="11" max="11" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12" thickBot="1">
@@ -5257,10 +5281,10 @@
       </c>
       <c r="B2" s="9" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(FxCurves!B24,$C$38, FxCurves!C24, FxCurves!D24)</f>
-        <v>AUDUSD-FxForward-6M-0.65-27/04/2018</v>
+        <v>AUDUSD-FxForward-6M-0.65-24/06/2019</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
@@ -5280,882 +5304,890 @@
       </c>
       <c r="B3" s="16" t="str">
         <f t="array" aca="1" ref="B3:B34" ca="1">_xll.HLV5r3.Financial.Cache.CreateAssets(FxCurves!B18:B35, $C$38,FxCurves!C18:C35, FxCurves!D18:D35)</f>
-        <v>AUDUSD-FxForward-0D-0.7-27/04/2018</v>
-      </c>
-      <c r="C3" s="10"/>
+        <v>AUDUSD-FxForward-0D-0.7-24/06/2019</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="11"/>
       <c r="E3" s="17" t="str">
-        <f t="array" aca="1" ref="E3:N34" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsForAssetSet(C2:C2,C36, B3:B19, C38)</f>
-        <v>AUDUSD-FxForward-0D-0.7-27/04/2018</v>
+        <f t="array" aca="1" ref="E3:N34" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsForAssetSet(C2:C6,C36, B3:B20, C38)</f>
+        <v>AUDUSD-FxForward-0D-0.7-24/06/2019</v>
       </c>
       <c r="F3" s="18" t="str">
         <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="G3" s="18">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="18" t="str">
+        <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="G3" s="18" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H3" s="18" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I3" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J3" s="18" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K3" s="18" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L3" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M3" s="18" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N3" s="19" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I3" s="19">
+        <f ca="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="J3" s="18" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K3" s="18">
+        <f ca="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="L3" s="19" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="M3" s="18">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N3" s="19" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="20"/>
       <c r="B4" s="16" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-1D-0.695-27/04/2018</v>
-      </c>
-      <c r="C4" s="20"/>
+        <v>AUDUSD-FxForward-1D-0.695-24/06/2019</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="D4" s="21"/>
       <c r="E4" s="22" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-1D-0.695-27/04/2018</v>
+        <v>AUDUSD-FxForward-1D-0.695-24/06/2019</v>
       </c>
       <c r="F4" s="12" t="str">
         <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="G4" s="12">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="12" t="str">
+        <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="G4" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H4" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I4" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J4" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K4" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L4" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M4" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N4" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I4" s="23">
+        <f ca="1"/>
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="J4" s="12" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K4" s="12">
+        <f ca="1"/>
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="L4" s="23" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="M4" s="12">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N4" s="23" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="20"/>
       <c r="B5" s="16" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxSpot-SP-0.69-27/04/2018</v>
-      </c>
-      <c r="C5" s="20"/>
+        <v>AUDUSD-FxSpot-SP-0.69-24/06/2019</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="D5" s="21"/>
       <c r="E5" s="22" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxSpot-SP-0.69-27/04/2018</v>
+        <v>AUDUSD-FxSpot-SP-0.69-24/06/2019</v>
       </c>
       <c r="F5" s="12" t="str">
         <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="G5" s="12">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="12" t="str">
+        <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="G5" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H5" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I5" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J5" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K5" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L5" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M5" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N5" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I5" s="23">
+        <f ca="1"/>
+        <v>0.69</v>
+      </c>
+      <c r="J5" s="12" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K5" s="12">
+        <f ca="1"/>
+        <v>0.69</v>
+      </c>
+      <c r="L5" s="23" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="M5" s="12">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N5" s="23" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="20"/>
       <c r="B6" s="16" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-1M-0.68-27/04/2018</v>
-      </c>
-      <c r="C6" s="20"/>
+        <v>AUDUSD-FxForward-1M-0.68-24/06/2019</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="D6" s="21"/>
       <c r="E6" s="22" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-1M-0.68-27/04/2018</v>
+        <v>AUDUSD-FxForward-1M-0.68-24/06/2019</v>
       </c>
       <c r="F6" s="12" t="str">
         <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="G6" s="12">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="12" t="str">
+        <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="G6" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H6" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I6" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J6" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K6" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L6" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M6" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N6" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I6" s="23">
+        <f ca="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="J6" s="12" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K6" s="12">
+        <f ca="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="L6" s="23" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="M6" s="12">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N6" s="23" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="20"/>
       <c r="B7" s="16" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-2M-0.67-27/04/2018</v>
+        <v>AUDUSD-FxForward-2M-0.67-24/06/2019</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="22" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-2M-0.67-27/04/2018</v>
+        <v>AUDUSD-FxForward-2M-0.67-24/06/2019</v>
       </c>
       <c r="F7" s="12" t="str">
         <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="G7" s="12">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="12" t="str">
+        <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="G7" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H7" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I7" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J7" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K7" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L7" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M7" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N7" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I7" s="23">
+        <f ca="1"/>
+        <v>0.67</v>
+      </c>
+      <c r="J7" s="12" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K7" s="12">
+        <f ca="1"/>
+        <v>0.67</v>
+      </c>
+      <c r="L7" s="23" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="M7" s="12">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N7" s="23" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="20"/>
       <c r="B8" s="16" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-3M-0.66-27/04/2018</v>
+        <v>AUDUSD-FxForward-3M-0.66-24/06/2019</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="22" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-3M-0.66-27/04/2018</v>
+        <v>AUDUSD-FxForward-3M-0.66-24/06/2019</v>
       </c>
       <c r="F8" s="12" t="str">
         <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="G8" s="12">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="12" t="str">
+        <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="G8" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H8" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I8" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J8" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K8" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L8" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M8" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N8" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I8" s="23">
+        <f ca="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="J8" s="12" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K8" s="12">
+        <f ca="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="L8" s="23" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="M8" s="12">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N8" s="23" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="20"/>
       <c r="B9" s="16" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-6M-0.65-27/04/2018</v>
+        <v>AUDUSD-FxForward-6M-0.65-24/06/2019</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-6M-0.65-27/04/2018</v>
+        <v>AUDUSD-FxForward-6M-0.65-24/06/2019</v>
       </c>
       <c r="F9" s="12" t="str">
         <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="G9" s="12">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="12" t="str">
+        <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="G9" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H9" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I9" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J9" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K9" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L9" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M9" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N9" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I9" s="23">
+        <f ca="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="J9" s="12" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K9" s="12">
+        <f ca="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="L9" s="23" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="M9" s="12">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N9" s="23" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="20"/>
       <c r="B10" s="16" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-9M-0.64-27/04/2018</v>
+        <v>AUDUSD-FxForward-9M-0.64-24/06/2019</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-9M-0.64-27/04/2018</v>
+        <v>AUDUSD-FxForward-9M-0.64-24/06/2019</v>
       </c>
       <c r="F10" s="12" t="str">
         <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="G10" s="12">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="12" t="str">
+        <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="G10" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H10" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I10" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J10" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K10" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L10" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M10" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N10" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I10" s="23">
+        <f ca="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="J10" s="12" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K10" s="12">
+        <f ca="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="L10" s="23" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="M10" s="12">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N10" s="23" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="20"/>
       <c r="B11" s="16" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-1Y-0.63-27/04/2018</v>
+        <v>AUDUSD-FxForward-1Y-0.63-24/06/2019</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="21"/>
       <c r="E11" s="22" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-1Y-0.63-27/04/2018</v>
+        <v>AUDUSD-FxForward-1Y-0.63-24/06/2019</v>
       </c>
       <c r="F11" s="12" t="str">
         <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="G11" s="12">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="12" t="str">
+        <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="G11" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H11" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I11" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J11" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K11" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L11" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M11" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N11" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I11" s="23">
+        <f ca="1"/>
+        <v>0.63</v>
+      </c>
+      <c r="J11" s="12" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K11" s="12">
+        <f ca="1"/>
+        <v>0.63</v>
+      </c>
+      <c r="L11" s="23" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="M11" s="12">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N11" s="23" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="20"/>
       <c r="B12" s="16" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-2Y-0.62-27/04/2018</v>
+        <v>AUDUSD-FxForward-2Y-0.62-24/06/2019</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
       <c r="E12" s="22" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-2Y-0.62-27/04/2018</v>
+        <v>AUDUSD-FxForward-2Y-0.62-24/06/2019</v>
       </c>
       <c r="F12" s="12" t="str">
         <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="G12" s="12">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="12" t="str">
+        <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="G12" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I12" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J12" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K12" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M12" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N12" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I12" s="23">
+        <f ca="1"/>
+        <v>0.62</v>
+      </c>
+      <c r="J12" s="12" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K12" s="12">
+        <f ca="1"/>
+        <v>0.62</v>
+      </c>
+      <c r="L12" s="23" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="M12" s="12">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N12" s="23" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="20"/>
       <c r="B13" s="16" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-3Y-0.61-27/04/2018</v>
+        <v>AUDUSD-FxForward-3Y-0.61-24/06/2019</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
       <c r="E13" s="22" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-3Y-0.61-27/04/2018</v>
+        <v>AUDUSD-FxForward-3Y-0.61-24/06/2019</v>
       </c>
       <c r="F13" s="12" t="str">
         <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="G13" s="12">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="12" t="str">
+        <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="G13" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H13" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I13" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J13" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K13" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L13" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M13" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N13" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I13" s="23">
+        <f ca="1"/>
+        <v>0.61</v>
+      </c>
+      <c r="J13" s="12" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K13" s="12">
+        <f ca="1"/>
+        <v>0.61</v>
+      </c>
+      <c r="L13" s="23" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="M13" s="12">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N13" s="23" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="20"/>
       <c r="B14" s="16" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-4Y-0.6-27/04/2018</v>
+        <v>AUDUSD-FxForward-4Y-0.6-24/06/2019</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
       <c r="E14" s="22" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-4Y-0.6-27/04/2018</v>
+        <v>AUDUSD-FxForward-4Y-0.6-24/06/2019</v>
       </c>
       <c r="F14" s="12" t="str">
         <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="G14" s="12">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="12" t="str">
+        <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="G14" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H14" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I14" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J14" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K14" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M14" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N14" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I14" s="23">
+        <f ca="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="J14" s="12" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K14" s="12">
+        <f ca="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="L14" s="23" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="M14" s="12">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N14" s="23" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="20"/>
       <c r="B15" s="16" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-5Y-0.59-27/04/2018</v>
+        <v>AUDUSD-FxForward-5Y-0.59-24/06/2019</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
       <c r="E15" s="22" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-5Y-0.59-27/04/2018</v>
+        <v>AUDUSD-FxForward-5Y-0.59-24/06/2019</v>
       </c>
       <c r="F15" s="12" t="str">
         <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="G15" s="12">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="12" t="str">
+        <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="G15" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H15" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I15" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J15" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K15" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L15" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M15" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N15" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I15" s="23">
+        <f ca="1"/>
+        <v>0.59</v>
+      </c>
+      <c r="J15" s="12" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K15" s="12">
+        <f ca="1"/>
+        <v>0.59</v>
+      </c>
+      <c r="L15" s="23" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="M15" s="12">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N15" s="23" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="20"/>
       <c r="B16" s="16" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-6Y-0.58-27/04/2018</v>
+        <v>AUDUSD-FxForward-6Y-0.58-24/06/2019</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-6Y-0.58-27/04/2018</v>
+        <v>AUDUSD-FxForward-6Y-0.58-24/06/2019</v>
       </c>
       <c r="F16" s="12" t="str">
         <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="G16" s="12">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="12" t="str">
+        <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="G16" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H16" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I16" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J16" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K16" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L16" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M16" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N16" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I16" s="23">
+        <f ca="1"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J16" s="12" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K16" s="12">
+        <f ca="1"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L16" s="23" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="M16" s="12">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N16" s="23" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="20"/>
       <c r="B17" s="16" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-7Y-0.57-27/04/2018</v>
+        <v>AUDUSD-FxForward-7Y-0.57-24/06/2019</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-7Y-0.57-27/04/2018</v>
+        <v>AUDUSD-FxForward-7Y-0.57-24/06/2019</v>
       </c>
       <c r="F17" s="12" t="str">
         <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="G17" s="12">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="12" t="str">
+        <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="G17" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H17" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I17" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J17" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K17" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L17" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M17" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N17" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I17" s="23">
+        <f ca="1"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J17" s="12" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K17" s="12">
+        <f ca="1"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L17" s="23" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="M17" s="12">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N17" s="23" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="20"/>
       <c r="B18" s="16" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-8Y-0.56-27/04/2018</v>
+        <v>AUDUSD-FxForward-8Y-0.56-24/06/2019</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
       <c r="E18" s="22" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-8Y-0.56-27/04/2018</v>
+        <v>AUDUSD-FxForward-8Y-0.56-24/06/2019</v>
       </c>
       <c r="F18" s="12" t="str">
         <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="G18" s="12">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="12" t="str">
+        <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="G18" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H18" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I18" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J18" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K18" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L18" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M18" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N18" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I18" s="23">
+        <f ca="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J18" s="12" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K18" s="12">
+        <f ca="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L18" s="23" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="M18" s="12">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N18" s="23" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="20"/>
       <c r="B19" s="16" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-9Y-0.55-27/04/2018</v>
+        <v>AUDUSD-FxForward-9Y-0.55-24/06/2019</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="21"/>
       <c r="E19" s="22" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-9Y-0.55-27/04/2018</v>
+        <v>AUDUSD-FxForward-9Y-0.55-24/06/2019</v>
       </c>
       <c r="F19" s="12" t="str">
         <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="G19" s="12">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="12" t="str">
+        <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="G19" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H19" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I19" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J19" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K19" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L19" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M19" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N19" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I19" s="23">
+        <f ca="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J19" s="12" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K19" s="12">
+        <f ca="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L19" s="23" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="M19" s="12">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N19" s="23" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="20"/>
       <c r="B20" s="16" t="str">
         <f ca="1"/>
-        <v>AUDUSD-FxForward-10Y-0.549-27/04/2018</v>
+        <v>AUDUSD-FxForward-10Y-0.549-24/06/2019</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="22" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F20" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G20" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H20" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I20" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J20" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K20" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L20" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M20" s="12" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N20" s="23" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="E20" s="22" t="str">
+        <f ca="1"/>
+        <v>AUDUSD-FxForward-10Y-0.549-24/06/2019</v>
+      </c>
+      <c r="F20" s="12" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="G20" s="12">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="12" t="str">
+        <f ca="1"/>
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="I20" s="23">
+        <f ca="1"/>
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="J20" s="12" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K20" s="12">
+        <f ca="1"/>
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="L20" s="23" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="M20" s="12">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="N20" s="23" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -6845,6 +6877,10 @@
       </c>
     </row>
     <row r="36" spans="1:14">
+      <c r="A36" s="7" t="str">
+        <f t="array" ref="A36:A46">_xll.HLV5r3.Financial.Cache.SupportedFxMetrics()</f>
+        <v>ForwardAtMaturity</v>
+      </c>
       <c r="B36" s="105" t="s">
         <v>79</v>
       </c>
@@ -6854,6 +6890,9 @@
       </c>
     </row>
     <row r="37" spans="1:14">
+      <c r="A37" s="7" t="str">
+        <v>NPV</v>
+      </c>
       <c r="B37" s="105" t="s">
         <v>80</v>
       </c>
@@ -6863,12 +6902,55 @@
       </c>
     </row>
     <row r="38" spans="1:14">
+      <c r="A38" s="7" t="str">
+        <v>BaseCcyNPV</v>
+      </c>
       <c r="B38" s="105" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="107">
         <f ca="1">FxCurves!C4</f>
-        <v>43217</v>
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="7" t="str">
+        <v>ForeignCcyNPV</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="7" t="str">
+        <v>ImpliedQuote</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="7" t="str">
+        <v>MarketQuote</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="7" t="str">
+        <v>ForwardDelta</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="7" t="str">
+        <v>SpotDelta</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="7" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -6908,7 +6990,7 @@
     <row r="2" spans="1:4">
       <c r="A2" s="40">
         <f ca="1">FxCurves!C3</f>
-        <v>43217</v>
+        <v>43640</v>
       </c>
       <c r="B2" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A2)</f>
@@ -6918,981 +7000,981 @@
     <row r="3" spans="1:4">
       <c r="A3" s="41">
         <f t="shared" ref="A3:A67" ca="1" si="0">A2+1</f>
-        <v>43218</v>
+        <v>43641</v>
       </c>
       <c r="B3" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A3)</f>
-        <v>0.69750000000000001</v>
+        <v>0.69499999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43219</v>
+        <v>43642</v>
       </c>
       <c r="B4" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A4)</f>
-        <v>0.69499999999999995</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43220</v>
+        <v>43643</v>
       </c>
       <c r="B5" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A5)</f>
-        <v>0.69249999999999989</v>
+        <v>0.69499999999999984</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43221</v>
+        <v>43644</v>
       </c>
       <c r="B6" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A6)</f>
-        <v>0.69</v>
+        <v>0.69448275862068953</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43222</v>
+        <v>43645</v>
       </c>
       <c r="B7" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A7)</f>
-        <v>0.69499999999999995</v>
+        <v>0.69396551724137923</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43223</v>
+        <v>43646</v>
       </c>
       <c r="B8" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A8)</f>
-        <v>0.69450000000000001</v>
+        <v>0.69344827586206881</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43224</v>
+        <v>43647</v>
       </c>
       <c r="B9" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A9)</f>
-        <v>0.69399999999999995</v>
+        <v>0.6929310344827585</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43225</v>
+        <v>43648</v>
       </c>
       <c r="B10" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A10)</f>
-        <v>0.69350000000000001</v>
+        <v>0.69241379310344819</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43226</v>
+        <v>43649</v>
       </c>
       <c r="B11" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A11)</f>
-        <v>0.69299999999999995</v>
+        <v>0.69189655172413789</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43227</v>
+        <v>43650</v>
       </c>
       <c r="B12" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A12)</f>
-        <v>0.6925</v>
+        <v>0.69137931034482747</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43228</v>
+        <v>43651</v>
       </c>
       <c r="B13" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A13)</f>
-        <v>0.69199999999999995</v>
+        <v>0.69086206896551716</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43229</v>
+        <v>43652</v>
       </c>
       <c r="B14" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A14)</f>
-        <v>0.6915</v>
+        <v>0.69034482758620686</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43230</v>
+        <v>43653</v>
       </c>
       <c r="B15" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A15)</f>
-        <v>0.69099999999999995</v>
+        <v>0.68982758620689655</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43231</v>
+        <v>43654</v>
       </c>
       <c r="B16" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A16)</f>
-        <v>0.6905</v>
+        <v>0.68931034482758613</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43232</v>
+        <v>43655</v>
       </c>
       <c r="B17" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A17)</f>
-        <v>0.69</v>
+        <v>0.68879310344827582</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43233</v>
+        <v>43656</v>
       </c>
       <c r="B18" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A18)</f>
-        <v>0.6895</v>
+        <v>0.68827586206896552</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43234</v>
+        <v>43657</v>
       </c>
       <c r="B19" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A19)</f>
-        <v>0.68900000000000006</v>
+        <v>0.6877586206896551</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43235</v>
+        <v>43658</v>
       </c>
       <c r="B20" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A20)</f>
-        <v>0.6885</v>
+        <v>0.68724137931034479</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43236</v>
+        <v>43659</v>
       </c>
       <c r="B21" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A21)</f>
-        <v>0.68800000000000006</v>
+        <v>0.68672413793103448</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43237</v>
+        <v>43660</v>
       </c>
       <c r="B22" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A22)</f>
-        <v>0.6875</v>
+        <v>0.68620689655172407</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43238</v>
+        <v>43661</v>
       </c>
       <c r="B23" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A23)</f>
-        <v>0.68699999999999994</v>
+        <v>0.68568965517241376</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43239</v>
+        <v>43662</v>
       </c>
       <c r="B24" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A24)</f>
-        <v>0.6865</v>
+        <v>0.68517241379310345</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43240</v>
+        <v>43663</v>
       </c>
       <c r="B25" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A25)</f>
-        <v>0.68600000000000005</v>
+        <v>0.68465517241379303</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43241</v>
+        <v>43664</v>
       </c>
       <c r="B26" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A26)</f>
-        <v>0.6855</v>
+        <v>0.68413793103448273</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43242</v>
+        <v>43665</v>
       </c>
       <c r="B27" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A27)</f>
-        <v>0.68499999999999994</v>
+        <v>0.68362068965517231</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43243</v>
+        <v>43666</v>
       </c>
       <c r="B28" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A28)</f>
-        <v>0.68450000000000011</v>
+        <v>0.683103448275862</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43244</v>
+        <v>43667</v>
       </c>
       <c r="B29" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A29)</f>
-        <v>0.68400000000000005</v>
+        <v>0.68258620689655169</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43245</v>
+        <v>43668</v>
       </c>
       <c r="B30" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A30)</f>
-        <v>0.6835</v>
+        <v>0.68206896551724139</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43246</v>
+        <v>43669</v>
       </c>
       <c r="B31" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A31)</f>
-        <v>0.68300000000000005</v>
+        <v>0.68155172413793097</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43247</v>
+        <v>43670</v>
       </c>
       <c r="B32" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A32)</f>
-        <v>0.68250000000000011</v>
+        <v>0.68103448275862066</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43248</v>
+        <v>43671</v>
       </c>
       <c r="B33" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A33)</f>
-        <v>0.68200000000000005</v>
+        <v>0.68051724137931036</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43249</v>
+        <v>43672</v>
       </c>
       <c r="B34" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A34)</f>
-        <v>0.68149999999999999</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43250</v>
+        <v>43673</v>
       </c>
       <c r="B35" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A35)</f>
-        <v>0.68100000000000005</v>
+        <v>0.67967741935483883</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43251</v>
+        <v>43674</v>
       </c>
       <c r="B36" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A36)</f>
-        <v>0.68049999999999999</v>
+        <v>0.6793548387096775</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43252</v>
+        <v>43675</v>
       </c>
       <c r="B37" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A37)</f>
-        <v>0.68</v>
+        <v>0.67903225806451617</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43253</v>
+        <v>43676</v>
       </c>
       <c r="B38" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A38)</f>
-        <v>0.67967741935483883</v>
+        <v>0.67870967741935484</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43254</v>
+        <v>43677</v>
       </c>
       <c r="B39" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A39)</f>
-        <v>0.6793548387096775</v>
+        <v>0.67838709677419362</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43255</v>
+        <v>43678</v>
       </c>
       <c r="B40" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A40)</f>
-        <v>0.67903225806451617</v>
+        <v>0.67806451612903229</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43256</v>
+        <v>43679</v>
       </c>
       <c r="B41" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A41)</f>
-        <v>0.67870967741935484</v>
+        <v>0.67774193548387096</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43257</v>
+        <v>43680</v>
       </c>
       <c r="B42" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A42)</f>
-        <v>0.67838709677419362</v>
+        <v>0.67741935483870974</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43258</v>
+        <v>43681</v>
       </c>
       <c r="B43" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A43)</f>
-        <v>0.67806451612903229</v>
+        <v>0.67709677419354841</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43259</v>
+        <v>43682</v>
       </c>
       <c r="B44" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A44)</f>
-        <v>0.67774193548387096</v>
+        <v>0.67677419354838719</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43260</v>
+        <v>43683</v>
       </c>
       <c r="B45" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A45)</f>
-        <v>0.67741935483870974</v>
+        <v>0.67645161290322586</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43261</v>
+        <v>43684</v>
       </c>
       <c r="B46" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A46)</f>
-        <v>0.67709677419354841</v>
+        <v>0.67612903225806453</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43262</v>
+        <v>43685</v>
       </c>
       <c r="B47" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A47)</f>
-        <v>0.67677419354838719</v>
+        <v>0.67580645161290331</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43263</v>
+        <v>43686</v>
       </c>
       <c r="B48" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A48)</f>
-        <v>0.67645161290322586</v>
+        <v>0.67548387096774198</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43264</v>
+        <v>43687</v>
       </c>
       <c r="B49" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A49)</f>
-        <v>0.67612903225806453</v>
+        <v>0.67516129032258065</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43265</v>
+        <v>43688</v>
       </c>
       <c r="B50" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A50)</f>
-        <v>0.67580645161290331</v>
+        <v>0.67483870967741943</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43689</v>
       </c>
       <c r="B51" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A51)</f>
-        <v>0.67548387096774198</v>
+        <v>0.6745161290322581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43267</v>
+        <v>43690</v>
       </c>
       <c r="B52" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A52)</f>
-        <v>0.67516129032258065</v>
+        <v>0.67419354838709677</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43268</v>
+        <v>43691</v>
       </c>
       <c r="B53" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A53)</f>
-        <v>0.67483870967741943</v>
+        <v>0.67387096774193556</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43269</v>
+        <v>43692</v>
       </c>
       <c r="B54" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A54)</f>
-        <v>0.6745161290322581</v>
+        <v>0.67354838709677423</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43270</v>
+        <v>43693</v>
       </c>
       <c r="B55" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A55)</f>
-        <v>0.67419354838709677</v>
+        <v>0.6732258064516129</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43271</v>
+        <v>43694</v>
       </c>
       <c r="B56" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A56)</f>
-        <v>0.67387096774193556</v>
+        <v>0.67290322580645168</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43272</v>
+        <v>43695</v>
       </c>
       <c r="B57" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A57)</f>
-        <v>0.67354838709677423</v>
+        <v>0.67258064516129035</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43273</v>
+        <v>43696</v>
       </c>
       <c r="B58" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A58)</f>
-        <v>0.6732258064516129</v>
+        <v>0.67225806451612913</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43274</v>
+        <v>43697</v>
       </c>
       <c r="B59" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A59)</f>
-        <v>0.67290322580645168</v>
+        <v>0.6719354838709678</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43275</v>
+        <v>43698</v>
       </c>
       <c r="B60" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A60)</f>
-        <v>0.67258064516129035</v>
+        <v>0.67161290322580647</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43276</v>
+        <v>43699</v>
       </c>
       <c r="B61" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A61)</f>
-        <v>0.67225806451612913</v>
+        <v>0.67129032258064525</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43277</v>
+        <v>43700</v>
       </c>
       <c r="B62" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A62)</f>
-        <v>0.6719354838709678</v>
+        <v>0.67096774193548392</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43278</v>
+        <v>43701</v>
       </c>
       <c r="B63" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A63)</f>
-        <v>0.67161290322580647</v>
+        <v>0.67064516129032259</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43279</v>
+        <v>43702</v>
       </c>
       <c r="B64" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A64)</f>
-        <v>0.67129032258064525</v>
+        <v>0.67032258064516137</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43280</v>
+        <v>43703</v>
       </c>
       <c r="B65" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A65)</f>
-        <v>0.67096774193548392</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43281</v>
+        <v>43704</v>
       </c>
       <c r="B66" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A66)</f>
-        <v>0.67064516129032259</v>
+        <v>0.66967741935483871</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>43282</v>
+        <v>43705</v>
       </c>
       <c r="B67" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A67)</f>
-        <v>0.67032258064516137</v>
+        <v>0.66935483870967749</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="41">
         <f t="shared" ref="A68:A100" ca="1" si="1">A67+1</f>
-        <v>43283</v>
+        <v>43706</v>
       </c>
       <c r="B68" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A68)</f>
-        <v>0.67</v>
+        <v>0.66903225806451616</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43284</v>
+        <v>43707</v>
       </c>
       <c r="B69" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A69)</f>
-        <v>0.66966666666666674</v>
+        <v>0.66870967741935494</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43285</v>
+        <v>43708</v>
       </c>
       <c r="B70" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A70)</f>
-        <v>0.66933333333333334</v>
+        <v>0.66838709677419361</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43286</v>
+        <v>43709</v>
       </c>
       <c r="B71" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A71)</f>
-        <v>0.66900000000000004</v>
+        <v>0.66806451612903228</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43287</v>
+        <v>43710</v>
       </c>
       <c r="B72" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A72)</f>
-        <v>0.66866666666666674</v>
+        <v>0.66774193548387095</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43288</v>
+        <v>43711</v>
       </c>
       <c r="B73" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A73)</f>
-        <v>0.66833333333333333</v>
+        <v>0.66741935483870973</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43289</v>
+        <v>43712</v>
       </c>
       <c r="B74" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A74)</f>
-        <v>0.66800000000000004</v>
+        <v>0.6670967741935484</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43290</v>
+        <v>43713</v>
       </c>
       <c r="B75" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A75)</f>
-        <v>0.66766666666666663</v>
+        <v>0.66677419354838718</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43291</v>
+        <v>43714</v>
       </c>
       <c r="B76" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A76)</f>
-        <v>0.66733333333333333</v>
+        <v>0.66645161290322585</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43292</v>
+        <v>43715</v>
       </c>
       <c r="B77" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A77)</f>
-        <v>0.66700000000000004</v>
+        <v>0.66612903225806452</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43293</v>
+        <v>43716</v>
       </c>
       <c r="B78" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A78)</f>
-        <v>0.66666666666666663</v>
+        <v>0.66580645161290331</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43294</v>
+        <v>43717</v>
       </c>
       <c r="B79" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A79)</f>
-        <v>0.66633333333333333</v>
+        <v>0.66548387096774198</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43295</v>
+        <v>43718</v>
       </c>
       <c r="B80" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A80)</f>
-        <v>0.66600000000000004</v>
+        <v>0.66516129032258076</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43296</v>
+        <v>43719</v>
       </c>
       <c r="B81" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A81)</f>
-        <v>0.66566666666666663</v>
+        <v>0.66483870967741943</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43297</v>
+        <v>43720</v>
       </c>
       <c r="B82" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A82)</f>
-        <v>0.66533333333333333</v>
+        <v>0.6645161290322581</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43298</v>
+        <v>43721</v>
       </c>
       <c r="B83" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A83)</f>
-        <v>0.66500000000000004</v>
+        <v>0.66419354838709688</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43299</v>
+        <v>43722</v>
       </c>
       <c r="B84" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A84)</f>
-        <v>0.66466666666666663</v>
+        <v>0.66387096774193555</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43300</v>
+        <v>43723</v>
       </c>
       <c r="B85" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A85)</f>
-        <v>0.66433333333333333</v>
+        <v>0.66354838709677422</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43301</v>
+        <v>43724</v>
       </c>
       <c r="B86" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A86)</f>
-        <v>0.66400000000000003</v>
+        <v>0.66322580645161289</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43302</v>
+        <v>43725</v>
       </c>
       <c r="B87" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A87)</f>
-        <v>0.66366666666666663</v>
+        <v>0.66290322580645167</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43303</v>
+        <v>43726</v>
       </c>
       <c r="B88" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A88)</f>
-        <v>0.66333333333333333</v>
+        <v>0.66258064516129034</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43304</v>
+        <v>43727</v>
       </c>
       <c r="B89" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A89)</f>
-        <v>0.66300000000000003</v>
+        <v>0.66225806451612901</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43305</v>
+        <v>43728</v>
       </c>
       <c r="B90" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A90)</f>
-        <v>0.66266666666666663</v>
+        <v>0.66193548387096779</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43306</v>
+        <v>43729</v>
       </c>
       <c r="B91" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A91)</f>
-        <v>0.66233333333333333</v>
+        <v>0.66161290322580657</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43307</v>
+        <v>43730</v>
       </c>
       <c r="B92" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A92)</f>
-        <v>0.66200000000000003</v>
+        <v>0.66129032258064524</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43308</v>
+        <v>43731</v>
       </c>
       <c r="B93" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A93)</f>
-        <v>0.66166666666666663</v>
+        <v>0.66096774193548391</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43309</v>
+        <v>43732</v>
       </c>
       <c r="B94" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A94)</f>
-        <v>0.66133333333333333</v>
+        <v>0.66064516129032258</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43310</v>
+        <v>43733</v>
       </c>
       <c r="B95" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A95)</f>
-        <v>0.66100000000000003</v>
+        <v>0.66032258064516136</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43311</v>
+        <v>43734</v>
       </c>
       <c r="B96" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A96)</f>
-        <v>0.66066666666666674</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43312</v>
+        <v>43735</v>
       </c>
       <c r="B97" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A97)</f>
-        <v>0.66033333333333333</v>
+        <v>0.65989130434782617</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43313</v>
+        <v>43736</v>
       </c>
       <c r="B98" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A98)</f>
-        <v>0.66</v>
+        <v>0.6597826086956522</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>43314</v>
+        <v>43737</v>
       </c>
       <c r="B99" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A99)</f>
-        <v>0.65989130434782617</v>
+        <v>0.65967391304347833</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="12" thickBot="1">
       <c r="A100" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>43315</v>
+        <v>43738</v>
       </c>
       <c r="B100" s="52">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(FxCurves!$C$1,  A100)</f>
-        <v>0.6597826086956522</v>
+        <v>0.65956521739130436</v>
       </c>
     </row>
   </sheetData>
